--- a/data/trans_camb/P23_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P23_R2-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-11.5834979039823</v>
+        <v>-11.4953898035341</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-11.78606253197238</v>
+        <v>-11.57439854904091</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-20.51671337859091</v>
+        <v>-20.63698146588695</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.843680087354485</v>
+        <v>-4.171803304863015</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.295281137892277</v>
+        <v>-2.348047043756425</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-9.55801336197713</v>
+        <v>-9.47584737448385</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-6.840809067982902</v>
+        <v>-6.575778812960477</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-6.104266945246235</v>
+        <v>-5.780669245957829</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-14.16257968150687</v>
+        <v>-13.85478886104395</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.7453702737928465</v>
+        <v>-1.213480085950559</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.9758856522027138</v>
+        <v>-1.251990901197865</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-9.57725787646107</v>
+        <v>-10.1453946983584</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.57855627621093</v>
+        <v>4.724040469361076</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.794574195841273</v>
+        <v>6.347521856893909</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-1.205227158028227</v>
+        <v>-1.397123983372304</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4473533768286378</v>
+        <v>-0.05243105473241376</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.163478030868194</v>
+        <v>1.296625421529118</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-7.211932175841474</v>
+        <v>-7.466039206373619</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2508973560368385</v>
+        <v>-0.2500740262654582</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2548833427707261</v>
+        <v>-0.251220822690614</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4470717064020233</v>
+        <v>-0.4533148805380672</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1935034346290085</v>
+        <v>-0.1673369467095403</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.0928984021843416</v>
+        <v>-0.09540656084373424</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3625438126796932</v>
+        <v>-0.3681771622084918</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.192138733914021</v>
+        <v>-0.186233090418387</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1726964128077004</v>
+        <v>-0.1653818534918084</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.4029626986989776</v>
+        <v>-0.3960563471846225</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.01897737812802585</v>
+        <v>-0.0296102583788237</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.02428208717272201</v>
+        <v>-0.02847622382390725</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.2402267331584826</v>
+        <v>-0.2448152000595559</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.224607325573127</v>
+        <v>0.2299192530476191</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.319109295183346</v>
+        <v>0.3001451384249844</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.04545916512826055</v>
+        <v>-0.06201729521396571</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01281434346366905</v>
+        <v>-0.0001852474284131406</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.03734235331700744</v>
+        <v>0.04120535367081817</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.2299394793078792</v>
+        <v>-0.2330999848081057</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.185379096453367</v>
+        <v>-7.379442298670746</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-11.57537351655801</v>
+        <v>-12.22227748349475</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-19.92097080139355</v>
+        <v>-20.4805215390544</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.019470330497911</v>
+        <v>0.9477373739470966</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.9863188696922088</v>
+        <v>-0.9853883033629394</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-7.863270049831321</v>
+        <v>-8.427613737904588</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.206163754855613</v>
+        <v>-1.983404789507843</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.052371730217691</v>
+        <v>-5.410582907087284</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-12.89583190969491</v>
+        <v>-13.43210075451073</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.98260739802717</v>
+        <v>1.796338538200372</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.873358773659795</v>
+        <v>-3.257068178002126</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-11.48394732118843</v>
+        <v>-11.82154808506147</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.651844919826965</v>
+        <v>9.183250021858187</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.356771557694583</v>
+        <v>6.840565262465434</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.9453994362829412</v>
+        <v>-1.365862828344276</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.128525806033958</v>
+        <v>4.158896528020682</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7508515728842788</v>
+        <v>0.7205211509668265</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-7.340605303992246</v>
+        <v>-7.526100889771622</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1683726693033205</v>
+        <v>-0.1726984156745333</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2731810055639629</v>
+        <v>-0.2858640101668897</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4751919310373904</v>
+        <v>-0.4840826810241984</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.03769877373043365</v>
+        <v>0.03696532732522667</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.04009865875795467</v>
+        <v>-0.04014990217593756</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3166077821697062</v>
+        <v>-0.3318836522234025</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.06573296174882</v>
+        <v>-0.06148049122429248</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1526234306787352</v>
+        <v>-0.16003246824354</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3920389945069744</v>
+        <v>-0.4048864324419277</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.0530773602968018</v>
+        <v>0.04665437704019427</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.0745762052657651</v>
+        <v>-0.08177630079551794</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.2984315283425472</v>
+        <v>-0.3068780977140634</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4047428013041361</v>
+        <v>0.4310131807439648</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3543834679536453</v>
+        <v>0.3230935181169352</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.04367652233041833</v>
+        <v>-0.06311322725384122</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1383999357275478</v>
+        <v>0.1378771924742214</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.02565843722279225</v>
+        <v>0.02420862916166976</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.2450615080077547</v>
+        <v>-0.2501256491860547</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>4.580804820816359</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-9.421261338035775</v>
+        <v>-9.42126133803578</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>4.639332553878328</v>
@@ -1083,7 +1083,7 @@
         <v>4.927829492082414</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-2.4325023152173</v>
+        <v>-2.432502315217302</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>2.805517913499317</v>
@@ -1092,7 +1092,7 @@
         <v>4.684516045877574</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-5.919866817530889</v>
+        <v>-5.919866817530886</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.515369885875739</v>
+        <v>-4.266461917032355</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.531814916516232</v>
+        <v>-0.711819104529385</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-15.03191671600663</v>
+        <v>-14.21034839956725</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.6212780816649293</v>
+        <v>-0.3713622885762738</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01580817719949594</v>
+        <v>0.2816509171370773</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-6.851798474627765</v>
+        <v>-6.599634722812745</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.6813273000549935</v>
+        <v>-0.4712847847608909</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.130577229420052</v>
+        <v>1.187473928187748</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-9.489726356632204</v>
+        <v>-9.385995131794015</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.965576810170716</v>
+        <v>6.101946132028583</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.897083345904354</v>
+        <v>9.436138299351986</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-3.588413128810097</v>
+        <v>-3.791918430805635</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.276036308237638</v>
+        <v>9.242735382215763</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.2492843817354</v>
+        <v>9.217465253895121</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.457024695067435</v>
+        <v>1.746553674478627</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>6.298924151053402</v>
+        <v>6.546959868497394</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>8.241236898997226</v>
+        <v>8.427970043020796</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-2.684413926524988</v>
+        <v>-2.471067207693893</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1267209872055504</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.2606248430520589</v>
+        <v>-0.2606248430520591</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.1945658058105867</v>
@@ -1188,7 +1188,7 @@
         <v>0.2066648822625735</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.1020150566056585</v>
+        <v>-0.1020150566056586</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.09360286226679004</v>
@@ -1197,7 +1197,7 @@
         <v>0.1562934630069519</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.1975095135528599</v>
+        <v>-0.1975095135528598</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1194711470389996</v>
+        <v>-0.1115846612207629</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.01405132852660866</v>
+        <v>-0.01772196145669318</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3876430870013837</v>
+        <v>-0.3664840463473811</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.02565491280415623</v>
+        <v>-0.0172065114340397</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.0006146272214180829</v>
+        <v>0.006130478888020234</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2658293856111512</v>
+        <v>-0.2533636999462774</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.02622418576088081</v>
+        <v>-0.0162216278643146</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.03596409319438323</v>
+        <v>0.04033882380844158</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2983775473394016</v>
+        <v>-0.2989051305386765</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1733240681990562</v>
+        <v>0.186330048248277</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2956978213321262</v>
+        <v>0.2872615014193525</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1035107510367244</v>
+        <v>-0.1074505753736378</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4239542422949308</v>
+        <v>0.4199823993883415</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4299987828031018</v>
+        <v>0.416845996491969</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06878899820911442</v>
+        <v>0.08175428536543697</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2198860920143338</v>
+        <v>0.2282094477232708</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2915542355114285</v>
+        <v>0.2995494782147505</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.09448500152292796</v>
+        <v>-0.08829913364149394</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-2.803067449509788</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-8.877932457504054</v>
+        <v>-8.87793245750405</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-1.823617677314088</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.273242936917596</v>
+        <v>-8.456127620502354</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-13.85855451153575</v>
+        <v>-14.26729836991409</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-19.73415398119142</v>
+        <v>-19.83674060667911</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.134536404485408</v>
+        <v>-3.854064612054502</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-6.638315192459496</v>
+        <v>-6.779217868234425</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-12.34868861728561</v>
+        <v>-12.39463132457617</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-4.844851010912548</v>
+        <v>-4.661555233235264</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-9.009284100552199</v>
+        <v>-8.870919197834819</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-14.90341661949341</v>
+        <v>-14.81676772556374</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8593539725927045</v>
+        <v>0.2883222770008862</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-5.0462899493887</v>
+        <v>-5.288119177930738</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-11.41490311073862</v>
+        <v>-11.44001293369185</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.765978330174011</v>
+        <v>3.965520885081394</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.11354167133018</v>
+        <v>1.165549311035095</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-5.419438666020715</v>
+        <v>-5.453285682871291</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.284459964164997</v>
+        <v>1.299641046729119</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-3.069492778544511</v>
+        <v>-3.18056849961139</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-9.373892978006019</v>
+        <v>-9.411118618287363</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.241819125249218</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.389619030645205</v>
+        <v>-0.3896190306452049</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.00120540495686353</v>
@@ -1402,7 +1402,7 @@
         <v>-0.1019581294572346</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.3229238693393139</v>
+        <v>-0.3229238693393138</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.05481071126241511</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1972199338527353</v>
+        <v>-0.2004377946206629</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3291156459147591</v>
+        <v>-0.3369364939360022</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4714584467338241</v>
+        <v>-0.4682545234445633</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1425632151821938</v>
+        <v>-0.1315489659876654</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2293094223708318</v>
+        <v>-0.2319961256316146</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4183386855082871</v>
+        <v>-0.4168932702407246</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1372699491493241</v>
+        <v>-0.1337057269635969</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2602217773298491</v>
+        <v>-0.2548699926732102</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.427441701960136</v>
+        <v>-0.4252586801229832</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.02368778167967521</v>
+        <v>0.007966520912465526</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1309157095561535</v>
+        <v>-0.1373299221854411</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.3029278187697259</v>
+        <v>-0.3019056213573746</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1486049165471292</v>
+        <v>0.155171185929714</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.04313660197655735</v>
+        <v>0.04573900020981509</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.2134509773496223</v>
+        <v>-0.2171053283972678</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04123780233642069</v>
+        <v>0.04183280654868635</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.09979941653609686</v>
+        <v>-0.0952469646488739</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.294067098716657</v>
+        <v>-0.2951830462957611</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>1.494963723177631</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-5.603085487523388</v>
+        <v>-5.603085487523391</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-0.2670084913261761</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.414252922352635</v>
+        <v>-5.171987921501421</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-7.448102782316404</v>
+        <v>-7.721625595673422</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-16.67467052838833</v>
+        <v>-16.7226509001654</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.3602698597175339</v>
+        <v>0.2382013832761705</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.4276623887491934</v>
+        <v>-0.597678847421522</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-7.421394668145116</v>
+        <v>-7.396430383110444</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.903332207922321</v>
+        <v>-1.688973150392753</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.342778083340803</v>
+        <v>-3.333045952978224</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-11.55955553717973</v>
+        <v>-11.46081330653588</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.2890551987064887</v>
+        <v>-0.4828686019093945</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-2.579823173664525</v>
+        <v>-2.826496793014096</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-11.79249384426623</v>
+        <v>-11.91113814128012</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.568542311031294</v>
+        <v>4.621692201387243</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.599771950731372</v>
+        <v>3.622247922529163</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-3.920621589194582</v>
+        <v>-3.622332102191888</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.308260799023985</v>
+        <v>1.541877780632495</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.1159448982259241</v>
+        <v>-0.1117203310826634</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-8.443958743070274</v>
+        <v>-8.323907493153246</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.06087920517014854</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.2281736912356417</v>
+        <v>-0.2281736912356418</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.008322280841249842</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1322788032389689</v>
+        <v>-0.1268351631812414</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1814779541941129</v>
+        <v>-0.1881613236528506</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.407176830621324</v>
+        <v>-0.4070420966549698</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.0132960547760282</v>
+        <v>0.004871034171574634</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.01761737833156777</v>
+        <v>-0.02401490248884324</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2903065700996634</v>
+        <v>-0.2872726580671409</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.05742126632718177</v>
+        <v>-0.05169854460821187</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1024737351599001</v>
+        <v>-0.1017491324306912</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3508804504571281</v>
+        <v>-0.3482086425391034</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.007415839725262347</v>
+        <v>-0.01323155312245238</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.06705735873834366</v>
+        <v>-0.07253288266758888</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.3040564684022156</v>
+        <v>-0.3083139635364441</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1917197328269994</v>
+        <v>0.1943010799680105</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1528721663325688</v>
+        <v>0.153212019988407</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.1658065909965252</v>
+        <v>-0.1537880558020014</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.04223976960359416</v>
+        <v>0.04835559981049951</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.003653368331310658</v>
+        <v>-0.003078655220763787</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.2702937914548977</v>
+        <v>-0.2654637955072683</v>
       </c>
     </row>
     <row r="34">
